--- a/MEtodos numericos.xlsx
+++ b/MEtodos numericos.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-28\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34787C05-D4D0-4777-9C12-4851E10204DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D865D5-B74B-491C-8B0D-585EFAA7A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{785BA450-2E9E-4CAA-968F-FF9BA494783D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{785BA450-2E9E-4CAA-968F-FF9BA494783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -60,15 +63,48 @@
   <si>
     <t>ERROR</t>
   </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Xi-1</t>
+  </si>
+  <si>
+    <t>F(X)</t>
+  </si>
+  <si>
+    <t>F'(X)</t>
+  </si>
+  <si>
+    <t>F(X)/F'(X)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Metodo  Newton-Rahpson</t>
+  </si>
+  <si>
+    <t>F(Xi)</t>
+  </si>
+  <si>
+    <t>F(Xi-1)</t>
+  </si>
+  <si>
+    <t>ERRORa%</t>
+  </si>
+  <si>
+    <t>Metodo Secante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
-    <numFmt numFmtId="186" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,14 +135,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,8 +180,8 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="180132"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -182,6 +228,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -191,7 +238,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1100">
+                          <a:rPr lang="es-NI" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -248,7 +295,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -329,8 +376,8 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="585788" cy="322524"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -372,6 +419,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -383,7 +431,7 @@
                         <m:begChr m:val="["/>
                         <m:endChr m:val="]"/>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1100">
+                          <a:rPr lang="es-NI" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -395,7 +443,7 @@
                         <m:f>
                           <m:fPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-NI" sz="1100">
+                              <a:rPr lang="es-NI" sz="1100" i="1">
                                 <a:solidFill>
                                   <a:srgbClr val="836967"/>
                                 </a:solidFill>
@@ -464,7 +512,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -572,8 +620,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="585788" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -615,6 +663,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -626,7 +675,7 @@
                         <m:begChr m:val="["/>
                         <m:endChr m:val="]"/>
                         <m:ctrlPr>
-                          <a:rPr lang="es-NI" sz="1100">
+                          <a:rPr lang="es-NI" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -666,7 +715,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -809,8 +858,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1775166" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -852,6 +901,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -983,7 +1033,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1342,7 +1392,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1492,7 @@
         <f>D3*G3</f>
         <v>-7.3132257461547852</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <f>ABS(F3-F2)/F3</f>
         <v>0.2</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>1.125</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G13" si="4">F4^10-2</f>
+        <f t="shared" ref="G4:G12" si="4">F4^10-2</f>
         <v>1.2473210254684091</v>
       </c>
       <c r="H4" s="1">
@@ -1489,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B4:B11" si="7">IF(H4&gt;0,F4,B4)</f>
+        <f t="shared" ref="B5:B11" si="7">IF(H4&gt;0,F4,B4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1870,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687F66BD-4FCA-496D-AF0C-6B5CBB1EB209}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,4 +2280,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC0B008-A9F3-438D-9939-A02080D1D236}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F671B9-CF80-4E04-A187-65E45E79F3C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125A981D-965B-401B-9427-DF1F1E9EC5B2}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>(EXP(-B3))-B3</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>EXP(-B3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3/D3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3-(C3/D3)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C6" si="0">(EXP(-B4))-B4</f>
+        <v>2.1487212707001282</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="1">-(EXP(-B4)+1)</f>
+        <v>-2.6487212707001282</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="2">C4/D4</f>
+        <v>-0.81122966560092724</v>
+      </c>
+      <c r="F4" s="3">
+        <f>ABS((B4-B3)/B4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f>IF(F4&lt;1,B4-(C4/D4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F5" s="3" t="e">
+        <f>ABS((B5-B4)/B5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="e">
+        <f t="shared" ref="B6:B8" si="3">IF(F5&lt;1,B5-(C5/D5),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="3" t="e">
+        <f t="shared" ref="F6:F8" si="4">ABS((B6-B5)/B6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>